--- a/CompareHumanData/ExperimentalResults_2.xlsx
+++ b/CompareHumanData/ExperimentalResults_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JupyterN\VectorSymbolicArchitectures\CompareHumanData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58314FC0-8DB6-4FE1-A72D-98BBF7DFB74C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD44752-CBCC-4B7A-A4A2-10C4A23F02C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="9583" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1561,7 +1561,7 @@
   <dimension ref="A1:AI65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>

--- a/CompareHumanData/ExperimentalResults_2.xlsx
+++ b/CompareHumanData/ExperimentalResults_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JupyterN\VectorSymbolicArchitectures\CompareHumanData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD44752-CBCC-4B7A-A4A2-10C4A23F02C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E705EB2C-81FD-436D-8435-C97D780A9C67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="9583" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1561,7 +1561,7 @@
   <dimension ref="A1:AI65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1681,106 +1681,106 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>5.3666666666666663</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <v>2.8807792155749961</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
@@ -1788,777 +1788,777 @@
         <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C3" s="4">
-        <v>1.0666666666666667</v>
+        <v>5.7</v>
       </c>
       <c r="D3" s="4">
-        <v>0.24944382578492943</v>
+        <v>3.2057240471797734</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C4" s="4">
-        <v>1.0666666666666667</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="D4" s="4">
-        <v>0.24944382578492943</v>
+        <v>3.2117838587855747</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C5" s="4">
-        <v>1.1000000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="D5" s="4">
-        <v>0.3</v>
+        <v>3.0849095070466275</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4">
-        <v>1.1000000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="D6" s="4">
-        <v>0.39581140290126393</v>
+        <v>2.9569128044860125</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AD6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C7" s="4">
-        <v>1.1666666666666667</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="D7" s="4">
-        <v>0.58214163988576606</v>
+        <v>2.8744081516413464</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C8" s="4">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="D8" s="4">
-        <v>0.4760952285695233</v>
+        <v>2.8</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AC8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE8">
         <v>1</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH8">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C9" s="4">
-        <v>1.2333333333333334</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="D9" s="4">
-        <v>0.80346471954626331</v>
+        <v>3.0630413353760377</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
       <c r="U9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W9">
         <v>1</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE9">
         <v>1</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C10" s="4">
-        <v>1.2666666666666666</v>
+        <v>4.5333333333333332</v>
       </c>
       <c r="D10" s="4">
-        <v>0.5120763831912406</v>
+        <v>2.777688887466621</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2567,185 +2567,185 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T10">
         <v>1</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Z10">
         <v>2</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE10">
         <v>1</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C11" s="4">
-        <v>1.3</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="D11" s="4">
-        <v>0.97125348562223102</v>
+        <v>2.765662468358872</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C12" s="4">
-        <v>1.3333333333333333</v>
+        <v>5.3666666666666663</v>
       </c>
       <c r="D12" s="4">
-        <v>0.78881063774661553</v>
+        <v>2.5492918406665193</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -2754,221 +2754,221 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12">
         <v>1</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V12">
         <v>1</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AH12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C13" s="4">
-        <v>1.6333333333333333</v>
+        <v>5.4333333333333336</v>
       </c>
       <c r="D13" s="4">
-        <v>1.1396880664852507</v>
+        <v>2.848196310337864</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <v>2</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AD13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AG13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AH13">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C14" s="4">
-        <v>1.6333333333333333</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="D14" s="4">
-        <v>1.2775845264491199</v>
+        <v>2.6674998698323411</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -2977,206 +2977,206 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T14">
         <v>1</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA14">
         <v>1</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH14">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C15" s="4">
-        <v>1.7333333333333334</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D15" s="4">
-        <v>0.99777530313971774</v>
+        <v>2.6718699236468995</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Z15">
         <v>3</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC15">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AD15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE15">
         <v>1</v>
       </c>
       <c r="AF15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH15">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C16" s="4">
-        <v>1.8333333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D16" s="4">
-        <v>1.3437096247164249</v>
+        <v>2.3392781412697001</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -3185,58 +3185,58 @@
         <v>3</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>2</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z16">
         <v>2</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AH16">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
@@ -3244,31 +3244,31 @@
         <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C17" s="4">
-        <v>1.9333333333333333</v>
+        <v>3.0666666666666669</v>
       </c>
       <c r="D17" s="4">
-        <v>1.4360439485692011</v>
+        <v>2.1746008573733455</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -3280,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -3301,96 +3301,96 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>1</v>
       </c>
       <c r="X17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z17">
         <v>1</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE17">
         <v>1</v>
       </c>
       <c r="AF17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH17">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C18" s="4">
-        <v>1.9666666666666666</v>
+        <v>4</v>
       </c>
       <c r="D18" s="4">
-        <v>1.1967548714010827</v>
+        <v>2.5690465157330258</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -3405,355 +3405,355 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y18">
         <v>5</v>
       </c>
       <c r="Z18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AD18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH18">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4">
-        <v>2</v>
+        <v>4.4333333333333336</v>
       </c>
       <c r="D19" s="4">
-        <v>1.5275252316519468</v>
+        <v>2.2313423961572747</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
       <c r="U19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V19">
         <v>1</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD19">
         <v>5</v>
       </c>
       <c r="AE19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C20" s="4">
-        <v>2.0666666666666669</v>
+        <v>5</v>
       </c>
       <c r="D20" s="4">
-        <v>1.6519348924485155</v>
+        <v>2.6708300832013507</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>9</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O20">
         <v>1</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AG20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C21" s="4">
-        <v>2.1</v>
+        <v>4.1333333333333337</v>
       </c>
       <c r="D21" s="4">
-        <v>1.6603212540549697</v>
+        <v>2.3342855200015462</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>8</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T21">
         <v>1</v>
       </c>
       <c r="U21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC21">
         <v>3</v>
       </c>
       <c r="AD21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AF21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AG21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AH21">
         <v>3</v>
@@ -3761,46 +3761,46 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C22" s="4">
-        <v>2.1</v>
+        <v>2.9333333333333331</v>
       </c>
       <c r="D22" s="4">
-        <v>1.9891371663780923</v>
+        <v>1.8061622912192088</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -3821,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -3833,31 +3833,31 @@
         <v>1</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC22">
         <v>1</v>
       </c>
       <c r="AD22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AF22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH22">
         <v>1</v>
@@ -3865,46 +3865,46 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C23" s="4">
-        <v>2.2333333333333334</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D23" s="4">
-        <v>1.6669999666733317</v>
+        <v>2.3144473782453265</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -3913,87 +3913,87 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T23">
         <v>1</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH23">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C24" s="4">
-        <v>2.2666666666666666</v>
+        <v>2.6333333333333333</v>
       </c>
       <c r="D24" s="4">
-        <v>1.7499206331208916</v>
+        <v>1.8162843634433703</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -4002,19 +4002,19 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -4023,185 +4023,185 @@
         <v>1</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V24">
         <v>1</v>
       </c>
       <c r="W24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA24">
         <v>1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD24">
         <v>4</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH24">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C25" s="4">
-        <v>2.2999999999999998</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="D25" s="4">
-        <v>1.6763054614240209</v>
+        <v>2.5914388967435746</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O25">
         <v>1</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y25">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH25">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" s="4">
-        <v>2.3333333333333335</v>
+        <v>2.7333333333333334</v>
       </c>
       <c r="D26" s="4">
-        <v>2.3428377854407438</v>
+        <v>1.9988885800753267</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -4210,13 +4210,13 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -4225,10 +4225,10 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -4237,37 +4237,37 @@
         <v>1</v>
       </c>
       <c r="U26">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V26">
         <v>1</v>
       </c>
       <c r="W26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X26">
         <v>2</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>2</v>
@@ -4276,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="AH26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
@@ -4284,43 +4284,43 @@
         <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C27" s="4">
-        <v>2.4</v>
+        <v>3.1333333333333333</v>
       </c>
       <c r="D27" s="4">
-        <v>1.5832456116050557</v>
+        <v>1.7650936393164969</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -4335,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -4344,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W27">
         <v>1</v>
@@ -4356,13 +4356,13 @@
         <v>6</v>
       </c>
       <c r="Z27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC27">
         <v>3</v>
@@ -4371,13 +4371,13 @@
         <v>5</v>
       </c>
       <c r="AE27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH27">
         <v>3</v>
@@ -4385,52 +4385,52 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C28" s="4">
-        <v>2.4333333333333331</v>
+        <v>4.4333333333333336</v>
       </c>
       <c r="D28" s="4">
-        <v>1.8917951498216947</v>
+        <v>2.5907956735764057</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O28">
         <v>1</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -4439,13 +4439,13 @@
         <v>1</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T28">
         <v>1</v>
       </c>
       <c r="U28">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V28">
         <v>1</v>
@@ -4454,63 +4454,63 @@
         <v>3</v>
       </c>
       <c r="X28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AF28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH28">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C29" s="4">
-        <v>2.4666666666666668</v>
+        <v>1</v>
       </c>
       <c r="D29" s="4">
-        <v>1.6275407487644937</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -4522,13 +4522,13 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -4537,10 +4537,10 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -4549,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="U29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>1</v>
@@ -4561,34 +4561,34 @@
         <v>1</v>
       </c>
       <c r="Y29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB29">
         <v>1</v>
       </c>
       <c r="AC29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE29">
         <v>1</v>
       </c>
       <c r="AF29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AH29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.3">
@@ -4596,28 +4596,28 @@
         <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C30" s="4">
-        <v>2.4666666666666668</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="D30" s="4">
-        <v>1.7461067804945061</v>
+        <v>0.24944382578492943</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -4626,19 +4626,19 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O30">
         <v>1</v>
       </c>
       <c r="P30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -4653,19 +4653,19 @@
         <v>1</v>
       </c>
       <c r="U30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V30">
         <v>1</v>
       </c>
       <c r="W30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z30">
         <v>1</v>
@@ -4677,78 +4677,78 @@
         <v>1</v>
       </c>
       <c r="AC30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AH30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C31" s="4">
-        <v>2.5333333333333332</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="D31" s="4">
-        <v>1.564892612574067</v>
+        <v>0.24944382578492943</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="U31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V31">
         <v>1</v>
@@ -4766,66 +4766,66 @@
         <v>1</v>
       </c>
       <c r="X31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB31">
         <v>1</v>
       </c>
       <c r="AC31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE31">
         <v>1</v>
       </c>
       <c r="AF31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C32" s="4">
-        <v>2.6333333333333333</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D32" s="4">
-        <v>1.8162843634433703</v>
+        <v>0.3</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -4834,19 +4834,19 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -4855,10 +4855,10 @@
         <v>1</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -4873,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="Y32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z32">
         <v>2</v>
@@ -4882,54 +4882,54 @@
         <v>1</v>
       </c>
       <c r="AB32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH32">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C33" s="4">
-        <v>2.7333333333333334</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D33" s="4">
-        <v>1.9988885800753267</v>
+        <v>0.39581140290126393</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -4938,19 +4938,19 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -4965,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="U33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V33">
         <v>1</v>
@@ -4974,102 +4974,102 @@
         <v>1</v>
       </c>
       <c r="X33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y33">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE33">
         <v>1</v>
       </c>
       <c r="AF33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C34" s="4">
-        <v>2.9333333333333331</v>
+        <v>1.2</v>
       </c>
       <c r="D34" s="4">
-        <v>1.6918103387266026</v>
+        <v>0.4760952285695233</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T34">
         <v>1</v>
       </c>
       <c r="U34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V34">
         <v>1</v>
@@ -5078,51 +5078,51 @@
         <v>1</v>
       </c>
       <c r="X34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB34">
         <v>1</v>
       </c>
       <c r="AC34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C35" s="4">
-        <v>2.9333333333333331</v>
+        <v>1.2333333333333334</v>
       </c>
       <c r="D35" s="4">
-        <v>1.8061622912192088</v>
+        <v>0.80346471954626331</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -5131,28 +5131,28 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -5161,55 +5161,55 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T35">
         <v>1</v>
       </c>
       <c r="U35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V35">
         <v>1</v>
       </c>
       <c r="W35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X35">
         <v>1</v>
       </c>
       <c r="Y35">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC35">
         <v>1</v>
       </c>
       <c r="AD35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH35">
         <v>1</v>
@@ -5217,28 +5217,28 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C36" s="4">
-        <v>3.0333333333333332</v>
+        <v>1.3</v>
       </c>
       <c r="D36" s="4">
-        <v>2.1052843566184172</v>
+        <v>0.97125348562223102</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -5250,19 +5250,19 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O36">
         <v>1</v>
       </c>
       <c r="P36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -5277,22 +5277,22 @@
         <v>1</v>
       </c>
       <c r="U36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V36">
         <v>1</v>
       </c>
       <c r="W36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X36">
         <v>1</v>
       </c>
       <c r="Y36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA36">
         <v>1</v>
@@ -5301,66 +5301,66 @@
         <v>1</v>
       </c>
       <c r="AC36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AH36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C37" s="4">
-        <v>3.0666666666666669</v>
+        <v>1.6333333333333333</v>
       </c>
       <c r="D37" s="4">
-        <v>1.8607047649270483</v>
+        <v>1.1396880664852507</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -5369,13 +5369,13 @@
         <v>2</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -5387,54 +5387,54 @@
         <v>1</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB37">
         <v>1</v>
       </c>
       <c r="AC37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C38" s="4">
-        <v>3.0666666666666669</v>
+        <v>2</v>
       </c>
       <c r="D38" s="4">
-        <v>2.1746008573733455</v>
+        <v>1.5275252316519468</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -5443,16 +5443,16 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -5464,7 +5464,7 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -5488,43 +5488,43 @@
         <v>7</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W38">
         <v>1</v>
       </c>
       <c r="X38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y38">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Z38">
         <v>1</v>
       </c>
       <c r="AA38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AD38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH38">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.3">
@@ -5532,31 +5532,31 @@
         <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C39" s="4">
-        <v>3.1333333333333333</v>
+        <v>2.1</v>
       </c>
       <c r="D39" s="4">
-        <v>1.7650936393164969</v>
+        <v>1.6603212540549697</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -5565,16 +5565,16 @@
         <v>8</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O39">
         <v>1</v>
       </c>
       <c r="P39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -5583,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -5592,40 +5592,40 @@
         <v>3</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W39">
         <v>1</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC39">
         <v>3</v>
       </c>
       <c r="AD39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE39">
         <v>1</v>
       </c>
       <c r="AF39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH39">
         <v>3</v>
@@ -5633,58 +5633,58 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C40" s="4">
-        <v>3.1333333333333333</v>
+        <v>2.1</v>
       </c>
       <c r="D40" s="4">
-        <v>1.8749814813900312</v>
+        <v>1.9891371663780923</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O40">
         <v>1</v>
       </c>
       <c r="P40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S40">
         <v>2</v>
@@ -5693,25 +5693,25 @@
         <v>1</v>
       </c>
       <c r="U40">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V40">
         <v>1</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB40">
         <v>1</v>
@@ -5720,16 +5720,16 @@
         <v>1</v>
       </c>
       <c r="AD40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH40">
         <v>1</v>
@@ -5737,85 +5737,85 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C41" s="4">
-        <v>3.4</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="D41" s="4">
-        <v>2.5638512697372549</v>
+        <v>2.3428377854407438</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O41">
         <v>1</v>
       </c>
       <c r="P41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T41">
         <v>1</v>
       </c>
       <c r="U41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X41">
         <v>2</v>
       </c>
       <c r="Y41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>1</v>
@@ -5824,16 +5824,16 @@
         <v>1</v>
       </c>
       <c r="AD41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE41">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AF41">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AG41">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AH41">
         <v>1</v>
@@ -5841,46 +5841,46 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="C42" s="4">
-        <v>3.8666666666666667</v>
+        <v>2.4333333333333331</v>
       </c>
       <c r="D42" s="4">
-        <v>2.3907228102721478</v>
+        <v>1.8917951498216947</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -5889,34 +5889,34 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T42">
         <v>1</v>
       </c>
       <c r="U42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA42">
         <v>1</v>
@@ -5925,66 +5925,66 @@
         <v>1</v>
       </c>
       <c r="AC42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C43" s="4">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D43" s="4">
-        <v>2.2412793965352318</v>
+        <v>2.5638512697372549</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43">
         <v>7</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43">
         <v>2</v>
       </c>
       <c r="L43">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -5993,10 +5993,10 @@
         <v>3</v>
       </c>
       <c r="Q43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S43">
         <v>3</v>
@@ -6011,81 +6011,81 @@
         <v>2</v>
       </c>
       <c r="W43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB43">
         <v>1</v>
       </c>
       <c r="AC43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AF43">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AG43">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH43">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C44" s="4">
-        <v>4</v>
+        <v>3.8666666666666667</v>
       </c>
       <c r="D44" s="4">
-        <v>2.5690465157330258</v>
+        <v>2.3907228102721478</v>
       </c>
       <c r="E44">
         <v>5</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I44">
         <v>6</v>
       </c>
       <c r="J44">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N44">
         <v>6</v>
@@ -6097,49 +6097,49 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T44">
         <v>1</v>
       </c>
       <c r="U44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W44">
         <v>2</v>
       </c>
       <c r="X44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y44">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z44">
         <v>2</v>
       </c>
       <c r="AA44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AD44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF44">
         <v>4</v>
@@ -6148,39 +6148,39 @@
         <v>4</v>
       </c>
       <c r="AH44">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C45" s="4">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="D45" s="4">
-        <v>2.3144473782453265</v>
+        <v>2.2412793965352318</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -6189,16 +6189,16 @@
         <v>9</v>
       </c>
       <c r="M45">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O45">
         <v>1</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -6213,117 +6213,117 @@
         <v>1</v>
       </c>
       <c r="U45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V45">
         <v>2</v>
       </c>
       <c r="W45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD45">
         <v>6</v>
       </c>
       <c r="AE45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH45">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C46" s="4">
-        <v>4.1333333333333337</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="D46" s="4">
-        <v>2.3342855200015462</v>
+        <v>0.58214163988576606</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O46">
         <v>1</v>
       </c>
       <c r="P46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T46">
         <v>1</v>
       </c>
       <c r="U46">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <v>1</v>
@@ -6332,135 +6332,135 @@
         <v>4</v>
       </c>
       <c r="Z46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE46">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AF46">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AG46">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AH46">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C47" s="4">
-        <v>4.4333333333333336</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="D47" s="4">
-        <v>2.2313423961572747</v>
+        <v>0.5120763831912406</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O47">
         <v>1</v>
       </c>
       <c r="P47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T47">
         <v>1</v>
       </c>
       <c r="U47">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V47">
         <v>1</v>
       </c>
       <c r="W47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE47">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AF47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH47">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.3">
@@ -6468,49 +6468,49 @@
         <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C48" s="4">
-        <v>4.4333333333333336</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="D48" s="4">
-        <v>2.5907956735764057</v>
+        <v>0.78881063774661553</v>
       </c>
       <c r="E48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O48">
         <v>1</v>
       </c>
       <c r="P48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -6519,102 +6519,102 @@
         <v>1</v>
       </c>
       <c r="S48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T48">
         <v>1</v>
       </c>
       <c r="U48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V48">
         <v>1</v>
       </c>
       <c r="W48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y48">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD48">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AG48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AH48">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C49" s="4">
-        <v>4.5333333333333332</v>
+        <v>1.7333333333333334</v>
       </c>
       <c r="D49" s="4">
-        <v>2.777688887466621</v>
+        <v>0.99777530313971774</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J49">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -6623,102 +6623,102 @@
         <v>1</v>
       </c>
       <c r="S49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T49">
         <v>1</v>
       </c>
       <c r="U49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>5</v>
       </c>
       <c r="Y49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Z49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE49">
         <v>1</v>
       </c>
       <c r="AF49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH49">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C50" s="4">
-        <v>4.833333333333333</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="D50" s="4">
-        <v>2.6718699236468995</v>
+        <v>1.3437096247164249</v>
       </c>
       <c r="E50">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H50">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O50">
         <v>1</v>
       </c>
       <c r="P50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -6727,102 +6727,102 @@
         <v>2</v>
       </c>
       <c r="S50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T50">
         <v>2</v>
       </c>
       <c r="U50">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC50">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AD50">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE50">
         <v>1</v>
       </c>
       <c r="AF50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH50">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C51" s="4">
-        <v>5</v>
+        <v>1.9333333333333333</v>
       </c>
       <c r="D51" s="4">
-        <v>2.6708300832013507</v>
+        <v>1.4360439485692011</v>
       </c>
       <c r="E51">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O51">
         <v>1</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -6831,52 +6831,52 @@
         <v>1</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T51">
         <v>1</v>
       </c>
       <c r="U51">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AF51">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AG51">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AH51">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.3">
@@ -6884,207 +6884,207 @@
         <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C52" s="4">
-        <v>5.1333333333333337</v>
+        <v>2.0666666666666669</v>
       </c>
       <c r="D52" s="4">
-        <v>2.6674998698323411</v>
+        <v>1.6519348924485155</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>9</v>
       </c>
       <c r="M52">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N52">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O52">
         <v>1</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T52">
         <v>1</v>
       </c>
       <c r="U52">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y52">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA52">
         <v>1</v>
       </c>
       <c r="AB52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE52">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AF52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH52">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C53" s="4">
-        <v>5.166666666666667</v>
+        <v>2.2666666666666666</v>
       </c>
       <c r="D53" s="4">
-        <v>2.3392781412697001</v>
+        <v>1.7499206331208916</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J53">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O53">
         <v>1</v>
       </c>
       <c r="P53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U53">
         <v>6</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W53">
         <v>3</v>
       </c>
       <c r="X53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y53">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC53">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AD53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE53">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AF53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH53">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.3">
@@ -7092,28 +7092,28 @@
         <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C54" s="4">
-        <v>5.3666666666666663</v>
+        <v>2.4666666666666668</v>
       </c>
       <c r="D54" s="4">
-        <v>2.5492918406665193</v>
+        <v>1.7461067804945061</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
       <c r="H54">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -7122,34 +7122,34 @@
         <v>1</v>
       </c>
       <c r="L54">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O54">
         <v>1</v>
       </c>
       <c r="P54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T54">
         <v>1</v>
       </c>
       <c r="U54">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V54">
         <v>1</v>
@@ -7158,37 +7158,37 @@
         <v>3</v>
       </c>
       <c r="X54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y54">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB54">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH54">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.3">
@@ -7196,49 +7196,49 @@
         <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C55" s="4">
-        <v>5.3666666666666663</v>
+        <v>2.5333333333333332</v>
       </c>
       <c r="D55" s="4">
-        <v>2.8807792155749961</v>
+        <v>1.564892612574067</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G55">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J55">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -7247,96 +7247,96 @@
         <v>2</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA55">
         <v>5</v>
       </c>
       <c r="AB55">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC55">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AD55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH55">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C56" s="4">
-        <v>5.4333333333333336</v>
+        <v>1.9666666666666666</v>
       </c>
       <c r="D56" s="4">
-        <v>2.848196310337864</v>
+        <v>1.1967548714010827</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F56">
         <v>4</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J56">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L56">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M56">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -7345,316 +7345,316 @@
         <v>3</v>
       </c>
       <c r="Q56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U56">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y56">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB56">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AD56">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE56">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AF56">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AG56">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AH56">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C57" s="4">
-        <v>5.5333333333333332</v>
+        <v>2.4</v>
       </c>
       <c r="D57" s="4">
-        <v>2.5914388967435746</v>
+        <v>1.5832456116050557</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F57">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G57">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M57">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O57">
         <v>1</v>
       </c>
       <c r="P57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U57">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X57">
         <v>3</v>
       </c>
       <c r="Y57">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA57">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD57">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE57">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AF57">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AG57">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AH57">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C58" s="4">
-        <v>5.5333333333333332</v>
+        <v>1.6333333333333333</v>
       </c>
       <c r="D58" s="4">
-        <v>3.0630413353760377</v>
+        <v>1.2775845264491199</v>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H58">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N58">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O58">
         <v>1</v>
       </c>
       <c r="P58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T58">
         <v>1</v>
       </c>
       <c r="U58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W58">
         <v>1</v>
       </c>
       <c r="X58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y58">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Z58">
         <v>3</v>
       </c>
       <c r="AA58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AD58">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE58">
         <v>1</v>
       </c>
       <c r="AF58">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AG58">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AH58">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C59" s="4">
-        <v>5.7</v>
+        <v>2.9333333333333331</v>
       </c>
       <c r="D59" s="4">
-        <v>3.2057240471797734</v>
+        <v>1.6918103387266026</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G59">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H59">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M59">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N59">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -7663,96 +7663,96 @@
         <v>2</v>
       </c>
       <c r="S59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T59">
         <v>1</v>
       </c>
       <c r="U59">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="V59">
         <v>1</v>
       </c>
       <c r="W59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y59">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA59">
         <v>5</v>
       </c>
       <c r="AB59">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD59">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE59">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AF59">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AG59">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AH59">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C60" s="4">
-        <v>5.9333333333333336</v>
+        <v>3.0666666666666669</v>
       </c>
       <c r="D60" s="4">
-        <v>2.8744081516413464</v>
+        <v>1.8607047649270483</v>
       </c>
       <c r="E60">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G60">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H60">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J60">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M60">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N60">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -7761,266 +7761,266 @@
         <v>2</v>
       </c>
       <c r="Q60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S60">
         <v>2</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U60">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="V60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y60">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB60">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC60">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AD60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AF60">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AG60">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AH60">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C61" s="4">
-        <v>6.1333333333333337</v>
+        <v>2.2333333333333334</v>
       </c>
       <c r="D61" s="4">
-        <v>2.765662468358872</v>
+        <v>1.6669999666733317</v>
       </c>
       <c r="E61">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H61">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M61">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U61">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X61">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Y61">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Z61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA61">
         <v>5</v>
       </c>
       <c r="AB61">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD61">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AF61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AH61">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="C62" s="4">
-        <v>6.1333333333333337</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D62" s="4">
-        <v>3.2117838587855747</v>
+        <v>1.6763054614240209</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G62">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H62">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N62">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T62">
         <v>1</v>
       </c>
       <c r="U62">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X62">
         <v>1</v>
       </c>
       <c r="Y62">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA62">
         <v>5</v>
       </c>
       <c r="AB62">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC62">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD62">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF62">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG62">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AH62">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.3">
@@ -8028,49 +8028,49 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C63" s="4">
-        <v>6.4</v>
+        <v>2.4666666666666668</v>
       </c>
       <c r="D63" s="4">
-        <v>2.8</v>
+        <v>1.6275407487644937</v>
       </c>
       <c r="E63">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H63">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L63">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M63">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N63">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O63">
         <v>1</v>
       </c>
       <c r="P63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -8079,263 +8079,266 @@
         <v>3</v>
       </c>
       <c r="S63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T63">
         <v>1</v>
       </c>
       <c r="U63">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y63">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA63">
         <v>5</v>
       </c>
       <c r="AB63">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC63">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AD63">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE63">
         <v>1</v>
       </c>
       <c r="AF63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH63">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C64" s="4">
-        <v>6.5</v>
+        <v>3.0333333333333332</v>
       </c>
       <c r="D64" s="4">
-        <v>3.0849095070466275</v>
+        <v>2.1052843566184172</v>
       </c>
       <c r="E64">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G64">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H64">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I64">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N64">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U64">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W64">
         <v>3</v>
       </c>
       <c r="X64">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y64">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z64">
         <v>3</v>
       </c>
       <c r="AA64">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC64">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AD64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF64">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG64">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AH64">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C65" s="4">
-        <v>6.7</v>
+        <v>3.1333333333333333</v>
       </c>
       <c r="D65" s="4">
-        <v>2.9569128044860125</v>
+        <v>1.8749814813900312</v>
       </c>
       <c r="E65">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G65">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H65">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J65">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K65">
         <v>2</v>
       </c>
       <c r="L65">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M65">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P65">
         <v>3</v>
       </c>
       <c r="Q65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X65">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Y65">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB65">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC65">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AD65">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF65">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG65">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AH65">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:AI67">
+    <sortCondition descending="1" ref="AB1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
